--- a/Quantum Computing Project Literature Reviews.xlsx
+++ b/Quantum Computing Project Literature Reviews.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plakshauniversity1-my.sharepoint.com/personal/alli_ajagbe_plaksha_edu_in/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plakshauniversity1-my.sharepoint.com/personal/alli_ajagbe_plaksha_edu_in/Documents/Desktop/Quantum Computing/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D526E775-A675-4E09-82B2-ACC4820B9051}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A0E4CB8-5D4E-41F5-8E1C-06487C697210}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
@@ -50,6 +51,15 @@
     <t>Points for Our Project</t>
   </si>
   <si>
+    <t>Points for Our Project2</t>
+  </si>
+  <si>
+    <t>Points for Our Project3</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>Idea 1</t>
   </si>
   <si>
@@ -59,40 +69,31 @@
     <t>Idea 3</t>
   </si>
   <si>
-    <t>Points for Our Project2</t>
-  </si>
-  <si>
-    <t>Points for Our Project3</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Cutting Medusa's Path -- Tackling Kill-Chains with Quantum Computing</t>
   </si>
   <si>
+    <t>Mark Carney</t>
+  </si>
+  <si>
+    <t>The paper introduces vulnerability graphs, akin to attack graphs, and proposes a method for addressing significant cybersecurity issues using quantum computing. Specifically, it employs Quantum Unconstrained Binary Optimization (QUBO) to express the connectivity of vulnerabilities in a network and then utilizes quantum annealing to solve this optimization problem. The effectiveness of the approach is demonstrated through its ability to prioritize patches and eliminate all potential paths to security compromise, known as kill-chains, on a network.</t>
+  </si>
+  <si>
+    <t>Utilize vulnerability graphs to represent the connectivity of vulnerabilities in the network, similar to attack graphs.</t>
+  </si>
+  <si>
+    <t>Implement Quantum Unconstrained Binary Optimization (QUBO) to encode the prioritization of patches based on the vulnerability graph.</t>
+  </si>
+  <si>
+    <t>Employ quantum annealing to efficiently solve the QUBO problem and identify the minimal set of vulnerabilities to patch, disrupting potential kill chains.</t>
+  </si>
+  <si>
+    <t>2211.13740.pdf (arxiv.org)</t>
+  </si>
+  <si>
     <t>Improving Variational Quantum Optimization using CVaR</t>
   </si>
   <si>
-    <t>Mark Carney</t>
-  </si>
-  <si>
     <t>Panagiotis Kl. Barkoutsos, Giacomo Nannicini, Anton Robert, Ivano Tavernelli, Stefan Woerner</t>
-  </si>
-  <si>
-    <t>2211.13740.pdf (arxiv.org)</t>
-  </si>
-  <si>
-    <t>The paper introduces vulnerability graphs, akin to attack graphs, and proposes a method for addressing significant cybersecurity issues using quantum computing. Specifically, it employs Quantum Unconstrained Binary Optimization (QUBO) to express the connectivity of vulnerabilities in a network and then utilizes quantum annealing to solve this optimization problem. The effectiveness of the approach is demonstrated through its ability to prioritize patches and eliminate all potential paths to security compromise, known as kill-chains, on a network.</t>
-  </si>
-  <si>
-    <t>Utilize vulnerability graphs to represent the connectivity of vulnerabilities in the network, similar to attack graphs.</t>
-  </si>
-  <si>
-    <t>Implement Quantum Unconstrained Binary Optimization (QUBO) to encode the prioritization of patches based on the vulnerability graph.</t>
-  </si>
-  <si>
-    <t>Employ quantum annealing to efficiently solve the QUBO problem and identify the minimal set of vulnerabilities to patch, disrupting potential kill chains.</t>
   </si>
   <si>
     <t>The paper discusses the implementation of hybrid quantum/classical variational algorithms on noisy intermediate-scale quantum computers to solve combinatorial optimization problems. These algorithms minimize the expectation of the problem Hamiltonian using parameterized trial quantum states. The expectation is estimated through the sample mean of measurement outcomes, while the parameters of the trial state are optimized classically. For classical optimization problems with diagonal Hamiltonians, the paper proposes using the Conditional Value-at-Risk as an aggregation function for sample outcomes. Empirical evidence, including classical simulation and quantum hardware experiments, demonstrates faster convergence to better solutions for various combinatorial optimization problems when using this approach.</t>
@@ -109,13 +110,774 @@
   </si>
   <si>
     <t>Improving Variational Quantum Optimization using CVaR (arxiv.org)</t>
+  </si>
+  <si>
+    <t>- Identification and classification of IoT devices based on patch status
+- Development of a patch management procedure for service providers</t>
+  </si>
+  <si>
+    <t>- Identification and classification of IoT devices for patch management
+- Development of a patch management procedure to reduce cybersecurity risks and ensure production availability</t>
+  </si>
+  <si>
+    <t>- Reduced cybersecurity risks and ensured production availability
+- Obtained IEC 62443-2-4 certification for patch management procedure</t>
+  </si>
+  <si>
+    <t>- Patch management procedure reduces cybersecurity risks and ensures production availability. 
+- Obtained IEC 62443-2-4 certification, demonstrating effectiveness of proposed patch management procedure.</t>
+  </si>
+  <si>
+    <t>Patch management is a procedure used to identify and classify devices, establish a patch management list, and develop a mitigation plan for situations where devices cannot be patched. It is used to reduce cybersecurity risks and ensure production availability in manufacturing.</t>
+  </si>
+  <si>
+    <t>Methods Used</t>
+  </si>
+  <si>
+    <t>Practical Implications</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusions	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL;DR	</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>Title and Link</t>
+  </si>
+  <si>
+    <t>Link to the project git repo - https://github.com/alliajagbe/patch-mgt/</t>
+  </si>
+  <si>
+    <t>Patch management is the process of testing and deploying software patches to address vulnerabilities in enterprise networks. It is used to improve vulnerability management and overcome shortcomings of traditional patching methodologies.</t>
+  </si>
+  <si>
+    <t>A patch management model is proposed to facilitate the rapid injection of software patches into live, commodity applications without disruption of production workflows, and the transparent sandboxing of suspicious processes for counterreconnaissance and threat information gathering.</t>
+  </si>
+  <si>
+    <t>- Proposed patch management model improves vulnerability management and workload visibility.
+- Enables rapid security patch testing and placement of exploit sensors.</t>
+  </si>
+  <si>
+    <t>- The proposed patch management model facilitates rapid injection of software patches.
+- The approach enables novel defense scenarios and incurs minimal runtime overheads.</t>
+  </si>
+  <si>
+    <t>- Rapid injection of software patches into live applications without disruption.
+- Transparent sandboxing of suspicious processes for threat information gathering.</t>
+  </si>
+  <si>
+    <t>- Proposed patch management model for rapid injection of software patches
+- Transparent sandboxing of suspicious processes for counterreconnaissance and threat information gathering</t>
+  </si>
+  <si>
+    <t>Application of advanced cybersecurity threat mitigation to rogue devices, privilege escalation, and risk-based vulnerability and patch management
+https://patents.google.com/patent/US10609079B2/en</t>
+  </si>
+  <si>
+    <t>Improving cybersecurity hygiene through JIT patching
+https://dl.acm.org/doi/10.1145/3368089.3417056</t>
+  </si>
+  <si>
+    <t>Securing Manufacturing through Patch Management for IoT Devices | IEEE Conference Publication | IEEE Xplore
+https://ieeexplore.ieee.org/document/10170074</t>
+  </si>
+  <si>
+    <t>Patch management is not mentioned in the provided paper. The paper is about a system for mitigating cyberattacks using advanced cybersecurity threat mitigation techniques.</t>
+  </si>
+  <si>
+    <t>- The paper proposes a system for mitigating cyberattacks using advanced cybersecurity techniques.
+- The system monitors network state, analyzes network events, and produces security recommendations.</t>
+  </si>
+  <si>
+    <t>- The system monitors network state and produces security recommendations.
+- Simulated network events are analyzed to produce security recommendations.</t>
+  </si>
+  <si>
+    <t>- Mitigation of cyberattacks through advanced cyber decision platform
+- Analysis of network events to produce security recommendations</t>
+  </si>
+  <si>
+    <t>- Time series data store, directed computational graph module, action outcome simulation module, observation and state estimation module
+- Monitoring network state, producing cyber-physical graph, analyzing network events, producing security recommendations</t>
+  </si>
+  <si>
+    <t>A patch management procedure for a service provider is presented, which allows patching under the supervision of the asset owner and the service provider to meet the requirements of IEC 62443-2-4.</t>
+  </si>
+  <si>
+    <t>A system for mitigation of cyberattacks employing an advanced cyber decision platform comprising a time series data store, a directed computational graph module, an action outcome simulation module, and an observation and state estimation module, wherein the state of a network is monitored and used to produce a cyber-physical graph representing network resources, simulated network events are produced and monitored.</t>
+  </si>
+  <si>
+    <t>Audit Plan for Patch Management
+of Enterprise Applications
+https://sci-hub.se/https://link.springer.com/chapter/10.1007/978-981-10-6454-8_22</t>
+  </si>
+  <si>
+    <t>Patch management is a risk management tool for enterprises and a key element of IT security programs. It helps in preventing downtime, data leakage, penalties, lost revenue, and reputation damage.</t>
+  </si>
+  <si>
+    <t>An audit program and plan for patch management of enterprise applications is developed and includes common elements recommended by information security frameworks and the research community.</t>
+  </si>
+  <si>
+    <t>- The paper develops an audit program and plan for patch management.
+- The audit plan maps to applicable sections of the NIST cybersecurity framework.</t>
+  </si>
+  <si>
+    <t>- Development of an audit program and plan for patch management.
+- Mapping of audit areas, objectives, and tests to the NIST cybersecurity framework.</t>
+  </si>
+  <si>
+    <t>- Provides a well-structured patch management program for enterprises.
+- Offers an audit program and plan for monitoring patch management implementation.</t>
+  </si>
+  <si>
+    <t>- Development of an audit program and plan for patch management
+- Mapping of audit areas, objectives, and tests to the NIST cybersecurity framework</t>
+  </si>
+  <si>
+    <t>Software security patch management - A systematic literature review of challenges, approaches, tools and practices
+https://dl.acm.org/doi/10.1016/j.infsof.2021.106771</t>
+  </si>
+  <si>
+    <t>- The paper uses a systematic literature review methodology.
+- The authors conducted a review of 72 studies published from 2002 to March 2020.</t>
+  </si>
+  <si>
+    <t>- Provides insights for practitioners to adopt new solutions in software security patch management.
+- Highlights the variations of practical utility of different solutions.</t>
+  </si>
+  <si>
+    <t>- 14 socio-technical challenges in software security patch management
+- 18 solution approaches, tools, and practices identified</t>
+  </si>
+  <si>
+    <t>- Identified socio-technical challenges and solutions in software security patch management.
+- Only 20.8% of solutions have been rigorously evaluated in industrial settings.</t>
+  </si>
+  <si>
+    <t>A systematic literature review of 72 studies published from 2002 to March 2020, with extended coverage until September 2020 through forward snowballing, was conducted to identify 14 socio-technical challenges in software security patch management, 18 solution approaches, tools and practices mapped onto the patch management process, and 20.8% of the reported solutions have been rigorously evaluated in industrial settings.</t>
+  </si>
+  <si>
+    <t>This paper does not explicitly define patch management or discuss its applications in cybersecurity. The paper focuses on conducting a systematic literature review of software security patch management, identifying challenges, approaches, tools, and practices.</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Vertex Cover | Brilliant Math &amp; Science Wiki</t>
+  </si>
+  <si>
+    <t>The webpage discusses vertex cover—a crucial concept in graph theory used for solving optimization problems. It highlights the complexity of finding the smallest vertex cover, which is an NP-complete problem, and presents an approximation algorithm as a practical approach to finding a solution.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertex Cover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The concept of a vertex cover in graph theory is explained. It’s a set of vertices that touch all edges in the graph, ensuring every edge is connected to at least one vertex in the set.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Vertex cover has practical applications in optimization problems, such as installing security cameras in an art gallery to cover all hallways.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NP-Completeness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The problem of finding a vertex cover is NP-complete, meaning it’s computationally challenging to find an exact solution but easy to verify a given solution.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Approximation Algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: An approximation algorithm for vertex cover is provided, which offers a faster, though potentially suboptimal, solution compared to exact algorithms.</t>
+    </r>
+  </si>
+  <si>
+    <t>The webpage provides documentation on two algorithms for finding vertex covers in graphs using Graphs.jl, focusing on their implementation, performance, and examples.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertex Cover Algorithms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The page details algorithms provided by Graphs.jl to find vertex covers in graphs.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Greedy Heuristic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It explains a greedy heuristic method, vertex_cover(g, DegreeVertexCover()), which selects vertices with the most uncovered edges.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Randomized Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Another method, vertex_cover(g, RandomVertexCover()), finds a vertex cover using a randomized algorithm with an approximation factor of 2.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance Metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Both methods include performance details, specifying runtime complexity and memory usage.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://juliagraphs.org/Graphs.jl/dev/algorithms/vertexcover/</t>
+  </si>
+  <si>
+    <t>The webpage discusses the Vertex Cover Problem, an NP Complete problem, and provides an approximate algorithm with a performance guarantee and polynomial time and space complexities.</t>
+  </si>
+  <si>
+    <t>Introduction and Approximate Solution for Vertex Cover Problem - GeeksforGeeks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertex Cover Problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It’s an NP Complete problem, meaning there’s no known polynomial-time solution unless P = NP1. The goal is to find the smallest set of vertices that covers all edges in a graph.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Approximate Algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The page describes a simple algorithm to find a vertex cover by considering all subsets of vertices and checking if they cover all edges. The algorithm iteratively picks an edge, adds its vertices to the result, and removes all edges incident to these vertices.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The algorithm guarantees a vertex cover no more than twice the size of the minimum possible vertex cover.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complexities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The time complexity is ( O(V + E) ) and the space complexity is ( O(V) ), where ( V ) and ( E ) are the number of vertices and edges, respectively</t>
+    </r>
+  </si>
+  <si>
+    <t>The following are websites that were utilised to elaborate understanding of various concepts.</t>
+  </si>
+  <si>
+    <t>Vertex Cover Graphs</t>
+  </si>
+  <si>
+    <t>Patch Management and its Applications in CyberSecurity</t>
+  </si>
+  <si>
+    <t>Vulnerability Graphs</t>
+  </si>
+  <si>
+    <t>Guide to Enterprise Patch Management Planning: Preventive Maintenance for Technology (nist.gov)</t>
+  </si>
+  <si>
+    <t>This NIST publication stresses the importance of patch management as essential maintenance for organizational technology, offering strategies for different risk scenarios and practical recommendations for enhancing the patch management process.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enterprise Patch Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It’s a process of managing patches for software vulnerabilities within an organization, crucial for maintaining technology and preventing security breaches.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Risk Response Scenarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The document outlines various scenarios like routine patching, emergency patching, emergency mitigation, and handling unpatchable assets, providing strategies for each.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintenance Groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It recommends assigning assets to maintenance groups based on similar characteristics to streamline the patch management process.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recommendations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Offers actionable recommendations for improving patch management planning, such as reducing patch-related disruptions and maintaining up-to-date software inventories.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vulnerability Metrics for Graph-based Configuration Security</t>
+  </si>
+  <si>
+    <t>The paper discusses the enhancement of graph-based configuration security by introducing metrics that quantify aspects like exploitation likelihood and component exposure to vulnerabilities, aiming to improve system security through a detailed model called SCIBORG.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vulnerability Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The use of vulnerability graphs as a tool for modeling multi-step attacks and assessing a system’s attack surface
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configuration Security</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leveraging relationships between system components, configuration parameters, and vulnerabilities to improve security while preserving functionality
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metrics Introduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Introduction of metrics to evaluate exploitation likelihood, probability distributions over vulnerability graph edges, and exposure factors of system components to vulnerabilities
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCIBORG Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A multi-layer graph approach for configuration analysis and optimization, which includes dependency, vulnerability, and configuration subgraphs</t>
+    </r>
+  </si>
+  <si>
+    <t>This comprehensive survey paper provides a detailed analysis of graph vulnerability and robustness, covering measures, applications, attack strategies, and defense mechanisms, serving as a guide for researchers and practitioners in the field.</t>
+  </si>
+  <si>
+    <t>Graph Vulnerability and Robustness: A Survey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Robustness Measures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The paper summarizes 17 modern and classical network robustness measures, providing a repository of information for researchers to compare and select appropriate measures for their applications
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It discusses the applicability of different robustness measures to various types of networks, such as social and infrastructure networks, highlighting the importance of context in evaluating network robustness.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attack Strategies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The survey reviews common network attack strategies, offering a comparison of which attacks are most effective across different network topologies
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defense Mechanisms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It provides an extensive discussion on network defense techniques, comparing their effectiveness across various network topologies and attack vectors</t>
+    </r>
+  </si>
+  <si>
+    <t>The insights from network attack strategies and robustness measures can inform the development of more robust cybersecurity defenses. This includes identifying potential vulnerabilities in communication and social networks, and implementing strategies to protect against both natural and adversarial threats.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,16 +907,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E4F5"/>
+        <bgColor rgb="FFC0E4F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,12 +989,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF43AEE2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF43AEE2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,12 +1038,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -272,19 +1142,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519B610E-64CA-42F8-A1EF-ADBAE58DAD3E}" name="Table1" displayName="Table1" ref="A1:C379" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519B610E-64CA-42F8-A1EF-ADBAE58DAD3E}" name="Table1" displayName="Table1" ref="A1:C379" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:C379" xr:uid="{519B610E-64CA-42F8-A1EF-ADBAE58DAD3E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A2D3A296-819D-4E39-AC1B-4E523F426F9D}" name="Title" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1FC6AA90-5FF0-446B-BC14-5850491FB139}" name="Author (s)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D57FD955-7BF5-4D4E-B471-14EC2C02A263}" name="Methodology Employed" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A2D3A296-819D-4E39-AC1B-4E523F426F9D}" name="Title" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1FC6AA90-5FF0-446B-BC14-5850491FB139}" name="Author (s)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D57FD955-7BF5-4D4E-B471-14EC2C02A263}" name="Methodology Employed" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FCC4159F-B0EF-4586-B377-DE014E75173C}" name="Table2" displayName="Table2" ref="D1:G1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FCC4159F-B0EF-4586-B377-DE014E75173C}" name="Table2" displayName="Table2" ref="D1:G1048576" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="D1:G1048576" xr:uid="{FCC4159F-B0EF-4586-B377-DE014E75173C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0886ADBE-40D8-4DEB-86EE-C63ED3F43B47}" name="Points for Our Project"/>
@@ -293,6 +1163,22 @@
     <tableColumn id="4" xr3:uid="{8EA69C66-869A-450B-9D66-1793CF9D4DF9}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7169AB9A-8D49-45A5-910C-19FFA36C1752}" name="Table35" displayName="Table35" ref="B5:H24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2">
+  <autoFilter ref="B5:H24" xr:uid="{3A93D50D-1B87-45C5-AC0D-2B5C42A75DD5}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EB8D2427-D65F-4656-BE66-630DC1F97B5E}" name="Title and Link" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B6F8B73A-5523-4771-B23E-24706E7A90B3}" name="TL;DR_x0009_" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B8CDEF4A-A309-4954-B4BF-4E31FE8854C1}" name="Insights" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E8AA0B8E-5CA5-4B80-B29C-1696D6C1E886}" name="Conclusions_x0009_" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{07D9BF49-291B-4402-B601-8EDB4458047E}" name="Results" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2F06D731-C74C-410D-9C7F-1CFA4D19CBC8}" name="Practical Implications" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1BFDDA52-0ED4-4FF7-97EB-50361C7F07FF}" name="Methods Used" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -615,22 +1501,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,58 +1530,58 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
@@ -713,1877 +1599,1877 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="4"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="4"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="4"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="4"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="4"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="4"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="4"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="4"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="4"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="4"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="4"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="4"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="4"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="4"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="4"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="4"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="4"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="4"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="4"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="4"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="4"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="4"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="4"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="4"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="4"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="4"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="4"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="4"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="4"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="4"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="4"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="4"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="4"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="4"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="4"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="4"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="4"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -2596,4 +3482,499 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9B722-7E19-448D-B0E2-BBA445065EEC}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" s="17" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://ieeexplore.ieee.org/document/10170074" xr:uid="{FDC19AE2-7E11-4DB4-A78F-398862EFAE2F}"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://dl.acm.org/doi/10.1145/3368089.3417056" xr:uid="{41CCC67B-A3A5-45CE-9833-6F924BC0177A}"/>
+    <hyperlink ref="B10" r:id="rId3" display="https://patents.google.com/patent/US10609079B2/en" xr:uid="{6E4A6D1B-A04A-49C1-8651-9854A643FFFB}"/>
+    <hyperlink ref="B11" r:id="rId4" display="https://sci-hub.se/https://link.springer.com/chapter/10.1007/978-981-10-6454-8_22" xr:uid="{80103700-4BF2-44F4-BFB8-B1188DE4EE1F}"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://dl.acm.org/doi/10.1016/j.infsof.2021.106771" xr:uid="{C0C65304-9142-4EC8-88EF-B9DC5B05E16A}"/>
+    <hyperlink ref="B19" r:id="rId6" display="https://brilliant.org/wiki/vertex-cover/" xr:uid="{D9377F83-5B62-43F7-B0E9-D5B2C9826C49}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{C3A23B7E-8EDA-48D1-9367-E930A01FD654}"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://www.geeksforgeeks.org/introduction-and-approximate-solution-for-vertex-cover-problem/" xr:uid="{37A63997-FC25-4F70-87C2-967501018B7A}"/>
+    <hyperlink ref="B22" r:id="rId9" display="https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-40r4.pdf" xr:uid="{75ABA9E5-F256-4EE1-8997-73473D08024F}"/>
+    <hyperlink ref="B23" r:id="rId10" display="https://www.scitepress.org/Papers/2021/105594/105594.pdf" xr:uid="{870D7DD5-6DDB-49A5-9AEF-BA23F6AE0989}"/>
+    <hyperlink ref="B24" r:id="rId11" display="https://arxiv.org/pdf/2105.00419.pdf" xr:uid="{EF799497-8CEF-4EC0-BC0E-414D419D3864}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId12"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Quantum Computing Project Literature Reviews.xlsx
+++ b/Quantum Computing Project Literature Reviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plakshauniversity1-my.sharepoint.com/personal/alli_ajagbe_plaksha_edu_in/Documents/Desktop/Quantum Computing/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A0E4CB8-5D4E-41F5-8E1C-06487C697210}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7394F7A-BEA8-4741-AB26-7A5707F53551}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,9 +1042,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1071,7 +1068,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1079,6 +1076,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,16 +1170,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7169AB9A-8D49-45A5-910C-19FFA36C1752}" name="Table35" displayName="Table35" ref="B5:H24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7169AB9A-8D49-45A5-910C-19FFA36C1752}" name="Table35" displayName="Table35" ref="B5:H24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B5:H24" xr:uid="{3A93D50D-1B87-45C5-AC0D-2B5C42A75DD5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EB8D2427-D65F-4656-BE66-630DC1F97B5E}" name="Title and Link" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B6F8B73A-5523-4771-B23E-24706E7A90B3}" name="TL;DR_x0009_" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{B8CDEF4A-A309-4954-B4BF-4E31FE8854C1}" name="Insights" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E8AA0B8E-5CA5-4B80-B29C-1696D6C1E886}" name="Conclusions_x0009_" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{07D9BF49-291B-4402-B601-8EDB4458047E}" name="Results" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{2F06D731-C74C-410D-9C7F-1CFA4D19CBC8}" name="Practical Implications" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1BFDDA52-0ED4-4FF7-97EB-50361C7F07FF}" name="Methods Used" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{EB8D2427-D65F-4656-BE66-630DC1F97B5E}" name="Title and Link" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B6F8B73A-5523-4771-B23E-24706E7A90B3}" name="TL;DR_x0009_" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B8CDEF4A-A309-4954-B4BF-4E31FE8854C1}" name="Insights" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E8AA0B8E-5CA5-4B80-B29C-1696D6C1E886}" name="Conclusions_x0009_" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{07D9BF49-291B-4402-B601-8EDB4458047E}" name="Results" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2F06D731-C74C-410D-9C7F-1CFA4D19CBC8}" name="Practical Implications" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1BFDDA52-0ED4-4FF7-97EB-50361C7F07FF}" name="Methods Used" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1502,21 +1505,21 @@
   <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection sqref="A1:G19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1553,14 +1556,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1576,7 +1579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1599,1877 +1602,1877 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -3488,19 +3491,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9B722-7E19-448D-B0E2-BBA445065EEC}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3510,29 +3512,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3542,7 +3544,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -3568,7 +3570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3578,9 +3580,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="2"/>
@@ -3590,17 +3592,17 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -3616,17 +3618,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -3642,17 +3644,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -3668,17 +3670,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -3694,17 +3696,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -3720,19 +3722,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="2"/>
@@ -3742,7 +3744,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3752,9 +3754,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="2"/>
@@ -3764,11 +3766,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3782,11 +3784,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="16" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3800,11 +3802,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3818,9 +3820,9 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
@@ -3828,22 +3830,22 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3857,11 +3859,11 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3875,11 +3877,11 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3895,7 +3897,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3905,7 +3907,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3915,7 +3917,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3925,7 +3927,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3935,7 +3937,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3945,7 +3947,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3973,8 +3975,9 @@
     <hyperlink ref="B24" r:id="rId11" display="https://arxiv.org/pdf/2105.00419.pdf" xr:uid="{EF799497-8CEF-4EC0-BC0E-414D419D3864}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Quantum Computing Project Literature Reviews.xlsx
+++ b/Quantum Computing Project Literature Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plakshauniversity1-my.sharepoint.com/personal/alli_ajagbe_plaksha_edu_in/Documents/Desktop/Quantum Computing/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23770A12-CC3C-45D1-9310-E503A48C8E3C}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2AF6D09-C248-48AD-ABC3-02CA76B1BEC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>Title</t>
   </si>
@@ -244,6 +244,9 @@
 - Mapping of audit areas, objectives, and tests to the NIST cybersecurity framework</t>
   </si>
   <si>
+    <t>https://dl.acm.org/doi/10.1016/j.infsof.2021.106771</t>
+  </si>
+  <si>
     <t>Software security patch management - A systematic literature review of challenges, approaches, tools and practices
 https://dl.acm.org/doi/10.1016/j.infsof.2021.106771</t>
   </si>
@@ -946,6 +949,39 @@
   </si>
   <si>
     <t>Lois Odilinye, Sergey Butakov, Shaun Aghili</t>
+  </si>
+  <si>
+    <t>Software Security Patch Management: A Systematic Literature Review of Challenges, Approaches, Tools, and Practices</t>
+  </si>
+  <si>
+    <t>The paper conducts a systematic literature review encompassing 72 studies published from 2002 to March 2020, with extended coverage until September 2020 through forward snowballing. It identifies 14 socio-technical challenges in software security patch management, 18 solution approaches, tools, and practices mapped onto the patch management process. Moreover, it highlights that only 20.8% of the reported solutions have undergone rigorous evaluation in industrial settings.</t>
+  </si>
+  <si>
+    <t>Conduct a systematic literature review to identify socio-technical challenges and solution approaches in software security patch management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Map identified challenges, approaches, tools, and practices onto the patch management process to provide comprehensive insights.</t>
+  </si>
+  <si>
+    <t>Nesara Dissanayake, Asangi Jayatilaka, Mansooreh Zahedi, M. Ali Babar</t>
+  </si>
+  <si>
+    <t>Introduction and Approximate Solution for Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>The webpage discusses the Vertex Cover Problem, a known NP-complete problem, and presents an approximate algorithm with a performance guarantee. The algorithm operates in polynomial time and space complexities.</t>
+  </si>
+  <si>
+    <t>Outline the Vertex Cover Problem, a known NP-complete problem aiming to find the smallest set of vertices covering all edges in a graph.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduce an approximate algorithm for the Vertex Cover Problem, which iteratively selects edges and adds their vertices to the cover set, guaranteeing a solution no more than twice the size of the optimal cover.</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/introduction-and-approximate-solution-for-vertex-cover-problem/</t>
   </si>
 </sst>
 </file>
@@ -1588,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,93 +1724,137 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="162.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1782,11 +1862,13 @@
     <hyperlink ref="G9" r:id="rId2" xr:uid="{CA83A426-C10F-446A-9E4A-98F2069FF8A6}"/>
     <hyperlink ref="G10" r:id="rId3" xr:uid="{B176910B-DED6-48B4-A6D8-CE747C5743BB}"/>
     <hyperlink ref="G11" r:id="rId4" xr:uid="{544D837B-BAA3-4C0A-ABD9-77A47DA4C7F1}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{B7BD90C8-51C3-459C-934B-8C7B5C4F6A74}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{043614BB-A4E4-4638-92F4-DF585EC7837B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1795,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9B722-7E19-448D-B0E2-BBA445065EEC}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,7 +1933,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -1888,7 +1970,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2006,25 +2088,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2040,7 +2122,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2062,7 +2144,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2076,13 +2158,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2094,13 +2176,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2112,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2137,7 +2219,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="12"/>
@@ -2151,13 +2233,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2169,13 +2251,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2187,18 +2269,18 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="2"/>
     </row>

--- a/Quantum Computing Project Literature Reviews.xlsx
+++ b/Quantum Computing Project Literature Reviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plakshauniversity1-my.sharepoint.com/personal/alli_ajagbe_plaksha_edu_in/Documents/Desktop/Quantum Computing/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2AF6D09-C248-48AD-ABC3-02CA76B1BEC3}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E694B8BF-B83F-45E1-BFE7-00BEE3F2C97B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>Title</t>
   </si>
@@ -781,6 +781,9 @@
     <t>This comprehensive survey paper provides a detailed analysis of graph vulnerability and robustness, covering measures, applications, attack strategies, and defense mechanisms, serving as a guide for researchers and practitioners in the field.</t>
   </si>
   <si>
+    <t>https://arxiv.org/pdf/2105.00419.pdf</t>
+  </si>
+  <si>
     <t>Graph Vulnerability and Robustness: A Survey</t>
   </si>
   <si>
@@ -982,6 +985,96 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/introduction-and-approximate-solution-for-vertex-cover-problem/</t>
+  </si>
+  <si>
+    <t>Graphs.jl Documentation - Vertex Cover Algorithms</t>
+  </si>
+  <si>
+    <t>Julia Graphs</t>
+  </si>
+  <si>
+    <t>The webpage provides comprehensive documentation on two algorithms implemented in Graphs.jl for finding vertex covers in graphs. It focuses on detailing the implementation, performance metrics, and usage examples of these algorithms.</t>
+  </si>
+  <si>
+    <t>Explore vertex cover algorithms provided by Graphs.jl, including a greedy heuristic method and a randomized approach.</t>
+  </si>
+  <si>
+    <t>Understand the implementation details and performance metrics of these algorithms, including their runtime complexity and memory usage.</t>
+  </si>
+  <si>
+    <t>Vertex Cover</t>
+  </si>
+  <si>
+    <t>Brilliant Math &amp; Science Wiki</t>
+  </si>
+  <si>
+    <t>The webpage delves into the concept of vertex cover within graph theory, elucidating its significance in solving optimization problems. It emphasizes the computational complexity associated with finding the smallest vertex cover, an NP-complete problem, and presents an approximation algorithm as a practical solution approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explore the concept of vertex cover in graph theory, defining it as a set of vertices touching all edges in the graph.</t>
+  </si>
+  <si>
+    <t>Address the computational complexity of finding a vertex cover, highlighting its NP-complete nature and the challenges of exact solution methods.</t>
+  </si>
+  <si>
+    <t>Present an approximation algorithm for vertex cover, offering a faster solution albeit potentially suboptimal compared to exact algorithms.</t>
+  </si>
+  <si>
+    <t>https://brilliant.org/wiki/vertex-cover/</t>
+  </si>
+  <si>
+    <t>Murugiah Souppaya, Karen Scarfone</t>
+  </si>
+  <si>
+    <t>Guide to Enterprise Patch Management Planning: Preventive Maintenance for Technology | NIST</t>
+  </si>
+  <si>
+    <t>The NIST publication emphasizes the significance of patch management as a critical maintenance practice for organizational technology. It provides strategies tailored for different risk scenarios and offers practical recommendations to enhance the patch management process, ensuring the resilience of enterprise systems.</t>
+  </si>
+  <si>
+    <t>Highlight the importance of enterprise patch management as a fundamental process for maintaining organizational technology and preventing security breaches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provide strategies for various risk response scenarios, including routine patching, emergency patching, emergency mitigation, and handling unpatchable assets.</t>
+  </si>
+  <si>
+    <t>Recommend assigning assets to maintenance groups based on similar characteristics to streamline the patch management process and improve efficiency.</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-40r4.pdf</t>
+  </si>
+  <si>
+    <t>Ibifubara Iganibo, Massimiliano Albanese, Marc Mosko, Eric Bier, Alejandro E. Brito</t>
+  </si>
+  <si>
+    <t>The paper discusses the enhancement of graph-based configuration security by introducing metrics that quantify aspects like exploitation likelihood and component exposure to vulnerabilities. It aims to improve system security through a detailed model called SCIBORG.</t>
+  </si>
+  <si>
+    <t>Utilize vulnerability graphs as a tool for modeling multi-step attacks and assessing a system's attack surface; leverage relationships between system components, configuration parameters, and vulnerabilities to improve security while preserving functionality.</t>
+  </si>
+  <si>
+    <t>Introduce metrics to evaluate exploitation likelihood, probability distributions over vulnerability graph edges, and exposure factors of system components to vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Implement the SCIBORG model, a multi-layer graph approach for configuration analysis and optimization, incorporating dependency, vulnerability, and configuration subgraphs.</t>
+  </si>
+  <si>
+    <t>https://www.scitepress.org/Papers/2021/105594/105594.pdf</t>
+  </si>
+  <si>
+    <t>This survey paper comprehensively analyzes graph vulnerability and robustness, encompassing various measures, applications, attack strategies, and defense mechanisms. It serves as a valuable resource for researchers and practitioners in the field, providing insights into the evaluation and enhancement of network resilience.</t>
+  </si>
+  <si>
+    <t>Scott Freitas, Diyi Yang, Srijan Kumar, Hanghang Tong, Duen Horng Chau</t>
+  </si>
+  <si>
+    <t>Summarize modern and classical network robustness measures to aid researchers in selecting appropriate measures for their applications.</t>
+  </si>
+  <si>
+    <t>Discuss the applicability of different robustness measures to various network types, emphasizing the contextual evaluation of network resilience.</t>
+  </si>
+  <si>
+    <t>Review common network attack strategies and defense mechanisms, comparing their effectiveness across different network topologies and attack vectors.</t>
   </si>
 </sst>
 </file>
@@ -1624,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,82 +1822,82 @@
     </row>
     <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>53</v>
@@ -1812,19 +1905,19 @@
     </row>
     <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>61</v>
@@ -1837,22 +1930,139 @@
     </row>
     <row r="16" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1864,11 +2074,16 @@
     <hyperlink ref="G11" r:id="rId4" xr:uid="{544D837B-BAA3-4C0A-ABD9-77A47DA4C7F1}"/>
     <hyperlink ref="G12" r:id="rId5" xr:uid="{B7BD90C8-51C3-459C-934B-8C7B5C4F6A74}"/>
     <hyperlink ref="G16" r:id="rId6" xr:uid="{043614BB-A4E4-4638-92F4-DF585EC7837B}"/>
+    <hyperlink ref="G17" r:id="rId7" xr:uid="{0D2D5D0B-EA4E-4281-9242-61D6957EBF84}"/>
+    <hyperlink ref="G18" r:id="rId8" xr:uid="{6C498495-A9B8-4AF4-827A-E618CB3B25C1}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{E84F5B0D-A6C1-41DA-AAEC-1BC689EE550F}"/>
+    <hyperlink ref="G23" r:id="rId10" xr:uid="{FC4791FE-1B4F-4BC0-9952-2B4D43D1C3BD}"/>
+    <hyperlink ref="G24" r:id="rId11" xr:uid="{01CA6C5E-9047-4454-835E-F07B77FF1932}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1877,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9B722-7E19-448D-B0E2-BBA445065EEC}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,18 +2484,18 @@
         <v>11</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="2"/>
     </row>

--- a/Quantum Computing Project Literature Reviews.xlsx
+++ b/Quantum Computing Project Literature Reviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plakshauniversity1-my.sharepoint.com/personal/alli_ajagbe_plaksha_edu_in/Documents/Desktop/Quantum Computing/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E694B8BF-B83F-45E1-BFE7-00BEE3F2C97B}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="8_{7C0D537C-E8E5-47F9-B684-A38B938765F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF46161-D592-4B8C-8182-6F60161243CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,53 +112,289 @@
     <t>Improving Variational Quantum Optimization using CVaR (arxiv.org)</t>
   </si>
   <si>
+    <t>Patch Management and its Applications in CyberSecurity</t>
+  </si>
+  <si>
+    <t>Securing Manufacturing through Patch Management for IoT Devices | IEEE Conference Paper</t>
+  </si>
+  <si>
+    <t>Vipin Ting; Hsiao-Yu Chou; Jung-Hsing Wang</t>
+  </si>
+  <si>
+    <t>The paper presents a patch management procedure tailored for service providers, facilitating patching under the supervision of both asset owners and service providers to meet the criteria of IEC 62443-2-4. The procedure involves identifying and classifying devices, establishing a patch management list, and devising mitigation plans for unpatchable situations. It aims to mitigate cybersecurity risks and ensure production availability in manufacturing environments.</t>
+  </si>
+  <si>
+    <t>Introduce a patch management procedure designed for service providers, enabling collaborative patching under asset owner supervision.</t>
+  </si>
+  <si>
+    <t>Establish processes for identifying and classifying IoT devices and developing a comprehensive patch management list.</t>
+  </si>
+  <si>
+    <t>Devise mitigation strategies for scenarios where patching is not feasible, ensuring continuity of production while reducing cybersecurity risks.</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10170074</t>
+  </si>
+  <si>
+    <t>Improving Cybersecurity Hygiene through Just-in-Time Patching</t>
+  </si>
+  <si>
+    <t>Frederico Araujo, Teryl Taylor</t>
+  </si>
+  <si>
+    <t>The paper introduces a patch management model aimed at facilitating the seamless integration of software patches into live commodity applications, ensuring continuous production workflows. Additionally, it proposes transparent sandboxing of suspicious processes for counter-reconnaissance and threat intelligence gathering. The model focuses on enhancing vulnerability management and workload visibility, offering an agile approach to security patch testing and deployment.</t>
+  </si>
+  <si>
+    <t>Introduce a patch management model for rapid and seamless integration of software patches into live applications without disrupting production workflows.</t>
+  </si>
+  <si>
+    <t>Implement transparent sandboxing of suspicious processes to gather threat intelligence and enhance counter-reconnaissance capabilities.</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3368089.3417056</t>
+  </si>
+  <si>
+    <t>Application of Advanced Cybersecurity Threat Mitigation to Rogue Devices, Privilege Escalation, and Risk-Based Vulnerability and Patch Management</t>
+  </si>
+  <si>
+    <t>Jason CrabtreeAndrew SellersDaniel FricanoRajat GuptaIan MacLeod</t>
+  </si>
+  <si>
+    <t>The patent describes a system designed for the mitigation of cyberattacks utilizing an advanced cyber decision platform. This platform comprises various modules such as a time series data store, a directed computational graph module, an action outcome simulation module, and an observation and state estimation module. The system monitors the state of a network, generates a cyber-physical graph representing network resources, and simulates network events for analysis.</t>
+  </si>
+  <si>
+    <t>Implement an advanced cyber decision platform comprising various modules for monitoring network state and producing security recommendations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Develop a system capable of generating cyber-physical graphs to represent network resources and simulate network events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://patents.google.com/patent/US10609079B2/en </t>
+  </si>
+  <si>
+    <t>Audit Plan for Patch Management of Enterprise Applications</t>
+  </si>
+  <si>
+    <t>Lois Odilinye, Sergey Butakov, Shaun Aghili</t>
+  </si>
+  <si>
+    <t>The paper develops an audit program and plan tailored for patch management of enterprise applications, incorporating elements recommended by information security frameworks and the research community. It emphasizes the importance of patch management as a risk management tool within IT security programs, aiming to mitigate downtime, data leakage, penalties, revenue loss, and reputational damage. The audit plan is meticulously crafted to align with relevant sections of the NIST cybersecurity framework.</t>
+  </si>
+  <si>
+    <t>Develop a comprehensive audit program and plan specifically designed for patch management in enterprise applications, incorporating recommendations from information security frameworks and academic research.</t>
+  </si>
+  <si>
+    <t>Highlight the significance of patch management as a risk management tool within IT security programs, emphasizing its role in preventing various detrimental outcomes such as downtime and data leakage.</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/https://link.springer.com/chapter/10.1007/978-981-10-6454-8_22</t>
+  </si>
+  <si>
+    <t>Software Security Patch Management: A Systematic Literature Review of Challenges, Approaches, Tools, and Practices</t>
+  </si>
+  <si>
+    <t>Nesara Dissanayake, Asangi Jayatilaka, Mansooreh Zahedi, M. Ali Babar</t>
+  </si>
+  <si>
+    <t>The paper conducts a systematic literature review encompassing 72 studies published from 2002 to March 2020, with extended coverage until September 2020 through forward snowballing. It identifies 14 socio-technical challenges in software security patch management, 18 solution approaches, tools, and practices mapped onto the patch management process. Moreover, it highlights that only 20.8% of the reported solutions have undergone rigorous evaluation in industrial settings.</t>
+  </si>
+  <si>
+    <t>Conduct a systematic literature review to identify socio-technical challenges and solution approaches in software security patch management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Map identified challenges, approaches, tools, and practices onto the patch management process to provide comprehensive insights.</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1016/j.infsof.2021.106771</t>
+  </si>
+  <si>
+    <t>Vertex Cover Graphs</t>
+  </si>
+  <si>
+    <t>Introduction and Approximate Solution for Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>The webpage discusses the Vertex Cover Problem, a known NP-complete problem, and presents an approximate algorithm with a performance guarantee. The algorithm operates in polynomial time and space complexities.</t>
+  </si>
+  <si>
+    <t>Outline the Vertex Cover Problem, a known NP-complete problem aiming to find the smallest set of vertices covering all edges in a graph.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduce an approximate algorithm for the Vertex Cover Problem, which iteratively selects edges and adds their vertices to the cover set, guaranteeing a solution no more than twice the size of the optimal cover.</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/introduction-and-approximate-solution-for-vertex-cover-problem/</t>
+  </si>
+  <si>
+    <t>Graphs.jl Documentation - Vertex Cover Algorithms</t>
+  </si>
+  <si>
+    <t>Julia Graphs</t>
+  </si>
+  <si>
+    <t>The webpage provides comprehensive documentation on two algorithms implemented in Graphs.jl for finding vertex covers in graphs. It focuses on detailing the implementation, performance metrics, and usage examples of these algorithms.</t>
+  </si>
+  <si>
+    <t>Explore vertex cover algorithms provided by Graphs.jl, including a greedy heuristic method and a randomized approach.</t>
+  </si>
+  <si>
+    <t>Understand the implementation details and performance metrics of these algorithms, including their runtime complexity and memory usage.</t>
+  </si>
+  <si>
+    <t>https://juliagraphs.org/Graphs.jl/dev/algorithms/vertexcover/</t>
+  </si>
+  <si>
+    <t>Vertex Cover</t>
+  </si>
+  <si>
+    <t>Brilliant Math &amp; Science Wiki</t>
+  </si>
+  <si>
+    <t>The webpage delves into the concept of vertex cover within graph theory, elucidating its significance in solving optimization problems. It emphasizes the computational complexity associated with finding the smallest vertex cover, an NP-complete problem, and presents an approximation algorithm as a practical solution approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explore the concept of vertex cover in graph theory, defining it as a set of vertices touching all edges in the graph.</t>
+  </si>
+  <si>
+    <t>Address the computational complexity of finding a vertex cover, highlighting its NP-complete nature and the challenges of exact solution methods.</t>
+  </si>
+  <si>
+    <t>Present an approximation algorithm for vertex cover, offering a faster solution albeit potentially suboptimal compared to exact algorithms.</t>
+  </si>
+  <si>
+    <t>https://brilliant.org/wiki/vertex-cover/</t>
+  </si>
+  <si>
+    <t>Vulnerability Graphs</t>
+  </si>
+  <si>
+    <t>Guide to Enterprise Patch Management Planning: Preventive Maintenance for Technology | NIST</t>
+  </si>
+  <si>
+    <t>Murugiah Souppaya, Karen Scarfone</t>
+  </si>
+  <si>
+    <t>The NIST publication emphasizes the significance of patch management as a critical maintenance practice for organizational technology. It provides strategies tailored for different risk scenarios and offers practical recommendations to enhance the patch management process, ensuring the resilience of enterprise systems.</t>
+  </si>
+  <si>
+    <t>Highlight the importance of enterprise patch management as a fundamental process for maintaining organizational technology and preventing security breaches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Provide strategies for various risk response scenarios, including routine patching, emergency patching, emergency mitigation, and handling unpatchable assets.</t>
+  </si>
+  <si>
+    <t>Recommend assigning assets to maintenance groups based on similar characteristics to streamline the patch management process and improve efficiency.</t>
+  </si>
+  <si>
+    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-40r4.pdf</t>
+  </si>
+  <si>
+    <t>Vulnerability Metrics for Graph-based Configuration Security</t>
+  </si>
+  <si>
+    <t>Ibifubara Iganibo, Massimiliano Albanese, Marc Mosko, Eric Bier, Alejandro E. Brito</t>
+  </si>
+  <si>
+    <t>The paper discusses the enhancement of graph-based configuration security by introducing metrics that quantify aspects like exploitation likelihood and component exposure to vulnerabilities. It aims to improve system security through a detailed model called SCIBORG.</t>
+  </si>
+  <si>
+    <t>Utilize vulnerability graphs as a tool for modeling multi-step attacks and assessing a system's attack surface; leverage relationships between system components, configuration parameters, and vulnerabilities to improve security while preserving functionality.</t>
+  </si>
+  <si>
+    <t>Introduce metrics to evaluate exploitation likelihood, probability distributions over vulnerability graph edges, and exposure factors of system components to vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Implement the SCIBORG model, a multi-layer graph approach for configuration analysis and optimization, incorporating dependency, vulnerability, and configuration subgraphs.</t>
+  </si>
+  <si>
+    <t>https://www.scitepress.org/Papers/2021/105594/105594.pdf</t>
+  </si>
+  <si>
+    <t>Graph Vulnerability and Robustness: A Survey</t>
+  </si>
+  <si>
+    <t>Scott Freitas, Diyi Yang, Srijan Kumar, Hanghang Tong, Duen Horng Chau</t>
+  </si>
+  <si>
+    <t>This survey paper comprehensively analyzes graph vulnerability and robustness, encompassing various measures, applications, attack strategies, and defense mechanisms. It serves as a valuable resource for researchers and practitioners in the field, providing insights into the evaluation and enhancement of network resilience.</t>
+  </si>
+  <si>
+    <t>Summarize modern and classical network robustness measures to aid researchers in selecting appropriate measures for their applications.</t>
+  </si>
+  <si>
+    <t>Discuss the applicability of different robustness measures to various network types, emphasizing the contextual evaluation of network resilience.</t>
+  </si>
+  <si>
+    <t>Review common network attack strategies and defense mechanisms, comparing their effectiveness across different network topologies and attack vectors.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2105.00419.pdf</t>
+  </si>
+  <si>
+    <t>Link to the project git repo - https://github.com/alliajagbe/patch-mgt/</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Title and Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL;DR	</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusions	</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Practical Implications</t>
+  </si>
+  <si>
+    <t>Methods Used</t>
+  </si>
+  <si>
+    <t>Securing Manufacturing through Patch Management for IoT Devices | IEEE Conference Publication | IEEE Xplore
+https://ieeexplore.ieee.org/document/10170074</t>
+  </si>
+  <si>
+    <t>A patch management procedure for a service provider is presented, which allows patching under the supervision of the asset owner and the service provider to meet the requirements of IEC 62443-2-4.</t>
+  </si>
+  <si>
+    <t>Patch management is a procedure used to identify and classify devices, establish a patch management list, and develop a mitigation plan for situations where devices cannot be patched. It is used to reduce cybersecurity risks and ensure production availability in manufacturing.</t>
+  </si>
+  <si>
+    <t>- Patch management procedure reduces cybersecurity risks and ensures production availability. 
+- Obtained IEC 62443-2-4 certification, demonstrating effectiveness of proposed patch management procedure.</t>
+  </si>
+  <si>
+    <t>- Reduced cybersecurity risks and ensured production availability
+- Obtained IEC 62443-2-4 certification for patch management procedure</t>
+  </si>
+  <si>
+    <t>- Identification and classification of IoT devices for patch management
+- Development of a patch management procedure to reduce cybersecurity risks and ensure production availability</t>
+  </si>
+  <si>
     <t>- Identification and classification of IoT devices based on patch status
 - Development of a patch management procedure for service providers</t>
   </si>
   <si>
-    <t>- Identification and classification of IoT devices for patch management
-- Development of a patch management procedure to reduce cybersecurity risks and ensure production availability</t>
-  </si>
-  <si>
-    <t>- Reduced cybersecurity risks and ensured production availability
-- Obtained IEC 62443-2-4 certification for patch management procedure</t>
-  </si>
-  <si>
-    <t>- Patch management procedure reduces cybersecurity risks and ensures production availability. 
-- Obtained IEC 62443-2-4 certification, demonstrating effectiveness of proposed patch management procedure.</t>
-  </si>
-  <si>
-    <t>Patch management is a procedure used to identify and classify devices, establish a patch management list, and develop a mitigation plan for situations where devices cannot be patched. It is used to reduce cybersecurity risks and ensure production availability in manufacturing.</t>
-  </si>
-  <si>
-    <t>Methods Used</t>
-  </si>
-  <si>
-    <t>Practical Implications</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conclusions	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL;DR	</t>
-  </si>
-  <si>
-    <t>Insights</t>
-  </si>
-  <si>
-    <t>Title and Link</t>
-  </si>
-  <si>
-    <t>Link to the project git repo - https://github.com/alliajagbe/patch-mgt/</t>
+    <t>Improving cybersecurity hygiene through JIT patching
+https://dl.acm.org/doi/10.1145/3368089.3417056</t>
+  </si>
+  <si>
+    <t>A patch management model is proposed to facilitate the rapid injection of software patches into live, commodity applications without disruption of production workflows, and the transparent sandboxing of suspicious processes for counterreconnaissance and threat information gathering.</t>
   </si>
   <si>
     <t>Patch management is the process of testing and deploying software patches to address vulnerabilities in enterprise networks. It is used to improve vulnerability management and overcome shortcomings of traditional patching methodologies.</t>
-  </si>
-  <si>
-    <t>A patch management model is proposed to facilitate the rapid injection of software patches into live, commodity applications without disruption of production workflows, and the transparent sandboxing of suspicious processes for counterreconnaissance and threat information gathering.</t>
   </si>
   <si>
     <t>- Proposed patch management model improves vulnerability management and workload visibility.
@@ -181,12 +417,7 @@
 https://patents.google.com/patent/US10609079B2/en</t>
   </si>
   <si>
-    <t>Improving cybersecurity hygiene through JIT patching
-https://dl.acm.org/doi/10.1145/3368089.3417056</t>
-  </si>
-  <si>
-    <t>Securing Manufacturing through Patch Management for IoT Devices | IEEE Conference Publication | IEEE Xplore
-https://ieeexplore.ieee.org/document/10170074</t>
+    <t>A system for mitigation of cyberattacks employing an advanced cyber decision platform comprising a time series data store, a directed computational graph module, an action outcome simulation module, and an observation and state estimation module, wherein the state of a network is monitored and used to produce a cyber-physical graph representing network resources, simulated network events are produced and monitored.</t>
   </si>
   <si>
     <t>Patch management is not mentioned in the provided paper. The paper is about a system for mitigating cyberattacks using advanced cybersecurity threat mitigation techniques.</t>
@@ -206,15 +437,6 @@
   <si>
     <t>- Time series data store, directed computational graph module, action outcome simulation module, observation and state estimation module
 - Monitoring network state, producing cyber-physical graph, analyzing network events, producing security recommendations</t>
-  </si>
-  <si>
-    <t>A patch management procedure for a service provider is presented, which allows patching under the supervision of the asset owner and the service provider to meet the requirements of IEC 62443-2-4.</t>
-  </si>
-  <si>
-    <t>A system for mitigation of cyberattacks employing an advanced cyber decision platform comprising a time series data store, a directed computational graph module, an action outcome simulation module, and an observation and state estimation module, wherein the state of a network is monitored and used to produce a cyber-physical graph representing network resources, simulated network events are produced and monitored.</t>
-  </si>
-  <si>
-    <t>https://sci-hub.se/https://link.springer.com/chapter/10.1007/978-981-10-6454-8_22</t>
   </si>
   <si>
     <t>Audit Plan for Patch Management
@@ -222,10 +444,10 @@
 https://sci-hub.se/https://link.springer.com/chapter/10.1007/978-981-10-6454-8_22</t>
   </si>
   <si>
+    <t>An audit program and plan for patch management of enterprise applications is developed and includes common elements recommended by information security frameworks and the research community.</t>
+  </si>
+  <si>
     <t>Patch management is a risk management tool for enterprises and a key element of IT security programs. It helps in preventing downtime, data leakage, penalties, lost revenue, and reputation damage.</t>
-  </si>
-  <si>
-    <t>An audit program and plan for patch management of enterprise applications is developed and includes common elements recommended by information security frameworks and the research community.</t>
   </si>
   <si>
     <t>- The paper develops an audit program and plan for patch management.
@@ -244,36 +466,226 @@
 - Mapping of audit areas, objectives, and tests to the NIST cybersecurity framework</t>
   </si>
   <si>
-    <t>https://dl.acm.org/doi/10.1016/j.infsof.2021.106771</t>
-  </si>
-  <si>
     <t>Software security patch management - A systematic literature review of challenges, approaches, tools and practices
 https://dl.acm.org/doi/10.1016/j.infsof.2021.106771</t>
   </si>
   <si>
+    <t>A systematic literature review of 72 studies published from 2002 to March 2020, with extended coverage until September 2020 through forward snowballing, was conducted to identify 14 socio-technical challenges in software security patch management, 18 solution approaches, tools and practices mapped onto the patch management process, and 20.8% of the reported solutions have been rigorously evaluated in industrial settings.</t>
+  </si>
+  <si>
+    <t>This paper does not explicitly define patch management or discuss its applications in cybersecurity. The paper focuses on conducting a systematic literature review of software security patch management, identifying challenges, approaches, tools, and practices.</t>
+  </si>
+  <si>
+    <t>- Identified socio-technical challenges and solutions in software security patch management.
+- Only 20.8% of solutions have been rigorously evaluated in industrial settings.</t>
+  </si>
+  <si>
+    <t>- 14 socio-technical challenges in software security patch management
+- 18 solution approaches, tools, and practices identified</t>
+  </si>
+  <si>
+    <t>- Provides insights for practitioners to adopt new solutions in software security patch management.
+- Highlights the variations of practical utility of different solutions.</t>
+  </si>
+  <si>
     <t>- The paper uses a systematic literature review methodology.
 - The authors conducted a review of 72 studies published from 2002 to March 2020.</t>
   </si>
   <si>
-    <t>- Provides insights for practitioners to adopt new solutions in software security patch management.
-- Highlights the variations of practical utility of different solutions.</t>
-  </si>
-  <si>
-    <t>- 14 socio-technical challenges in software security patch management
-- 18 solution approaches, tools, and practices identified</t>
-  </si>
-  <si>
-    <t>- Identified socio-technical challenges and solutions in software security patch management.
-- Only 20.8% of solutions have been rigorously evaluated in industrial settings.</t>
-  </si>
-  <si>
-    <t>A systematic literature review of 72 studies published from 2002 to March 2020, with extended coverage until September 2020 through forward snowballing, was conducted to identify 14 socio-technical challenges in software security patch management, 18 solution approaches, tools and practices mapped onto the patch management process, and 20.8% of the reported solutions have been rigorously evaluated in industrial settings.</t>
-  </si>
-  <si>
-    <t>This paper does not explicitly define patch management or discuss its applications in cybersecurity. The paper focuses on conducting a systematic literature review of software security patch management, identifying challenges, approaches, tools, and practices.</t>
-  </si>
-  <si>
-    <t>Sr. No.</t>
+    <t>The following are websites that were utilised to elaborate understanding of various concepts.</t>
+  </si>
+  <si>
+    <t>Introduction and Approximate Solution for Vertex Cover Problem - GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>The webpage discusses the Vertex Cover Problem, an NP Complete problem, and provides an approximate algorithm with a performance guarantee and polynomial time and space complexities.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertex Cover Problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It’s an NP Complete problem, meaning there’s no known polynomial-time solution unless P = NP1. The goal is to find the smallest set of vertices that covers all edges in a graph.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Approximate Algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The page describes a simple algorithm to find a vertex cover by considering all subsets of vertices and checking if they cover all edges. The algorithm iteratively picks an edge, adds its vertices to the result, and removes all edges incident to these vertices.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The algorithm guarantees a vertex cover no more than twice the size of the minimum possible vertex cover.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complexities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The time complexity is ( O(V + E) ) and the space complexity is ( O(V) ), where ( V ) and ( E ) are the number of vertices and edges, respectively</t>
+    </r>
+  </si>
+  <si>
+    <t>The webpage provides documentation on two algorithms for finding vertex covers in graphs using Graphs.jl, focusing on their implementation, performance, and examples.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertex Cover Algorithms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The page details algorithms provided by Graphs.jl to find vertex covers in graphs.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Greedy Heuristic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: It explains a greedy heuristic method, vertex_cover(g, DegreeVertexCover()), which selects vertices with the most uncovered edges.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Randomized Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Another method, vertex_cover(g, RandomVertexCover()), finds a vertex cover using a randomized algorithm with an approximation factor of 2.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance Metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Both methods include performance details, specifying runtime complexity and memory usage.</t>
+    </r>
   </si>
   <si>
     <t>Vertex Cover | Brilliant Math &amp; Science Wiki</t>
@@ -374,214 +786,6 @@
     </r>
   </si>
   <si>
-    <t>The webpage provides documentation on two algorithms for finding vertex covers in graphs using Graphs.jl, focusing on their implementation, performance, and examples.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vertex Cover Algorithms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: The page details algorithms provided by Graphs.jl to find vertex covers in graphs.
--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Greedy Heuristic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It explains a greedy heuristic method, vertex_cover(g, DegreeVertexCover()), which selects vertices with the most uncovered edges.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Randomized Approach</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Another method, vertex_cover(g, RandomVertexCover()), finds a vertex cover using a randomized algorithm with an approximation factor of 2.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Performance Metrics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Both methods include performance details, specifying runtime complexity and memory usage.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://juliagraphs.org/Graphs.jl/dev/algorithms/vertexcover/</t>
-  </si>
-  <si>
-    <t>The webpage discusses the Vertex Cover Problem, an NP Complete problem, and provides an approximate algorithm with a performance guarantee and polynomial time and space complexities.</t>
-  </si>
-  <si>
-    <t>Introduction and Approximate Solution for Vertex Cover Problem - GeeksforGeeks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vertex Cover Problem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: It’s an NP Complete problem, meaning there’s no known polynomial-time solution unless P = NP1. The goal is to find the smallest set of vertices that covers all edges in a graph.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Approximate Algorithm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: The page describes a simple algorithm to find a vertex cover by considering all subsets of vertices and checking if they cover all edges. The algorithm iteratively picks an edge, adds its vertices to the result, and removes all edges incident to these vertices.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Performance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: The algorithm guarantees a vertex cover no more than twice the size of the minimum possible vertex cover.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Complexities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: The time complexity is ( O(V + E) ) and the space complexity is ( O(V) ), where ( V ) and ( E ) are the number of vertices and edges, respectively</t>
-    </r>
-  </si>
-  <si>
-    <t>The following are websites that were utilised to elaborate understanding of various concepts.</t>
-  </si>
-  <si>
-    <t>Vertex Cover Graphs</t>
-  </si>
-  <si>
-    <t>Patch Management and its Applications in CyberSecurity</t>
-  </si>
-  <si>
-    <t>Vulnerability Graphs</t>
-  </si>
-  <si>
     <t>Guide to Enterprise Patch Management Planning: Preventive Maintenance for Technology (nist.gov)</t>
   </si>
   <si>
@@ -680,9 +884,6 @@
     </r>
   </si>
   <si>
-    <t>Vulnerability Metrics for Graph-based Configuration Security</t>
-  </si>
-  <si>
     <t>The paper discusses the enhancement of graph-based configuration security by introducing metrics that quantify aspects like exploitation likelihood and component exposure to vulnerabilities, aiming to improve system security through a detailed model called SCIBORG.</t>
   </si>
   <si>
@@ -781,12 +982,6 @@
     <t>This comprehensive survey paper provides a detailed analysis of graph vulnerability and robustness, covering measures, applications, attack strategies, and defense mechanisms, serving as a guide for researchers and practitioners in the field.</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/2105.00419.pdf</t>
-  </si>
-  <si>
-    <t>Graph Vulnerability and Robustness: A Survey</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">- </t>
     </r>
@@ -880,208 +1075,13 @@
   </si>
   <si>
     <t>The insights from network attack strategies and robustness measures can inform the development of more robust cybersecurity defenses. This includes identifying potential vulnerabilities in communication and social networks, and implementing strategies to protect against both natural and adversarial threats.</t>
-  </si>
-  <si>
-    <t>Vipin Ting; Hsiao-Yu Chou; Jung-Hsing Wang</t>
-  </si>
-  <si>
-    <t>Securing Manufacturing through Patch Management for IoT Devices | IEEE Conference Paper</t>
-  </si>
-  <si>
-    <t>The paper presents a patch management procedure tailored for service providers, facilitating patching under the supervision of both asset owners and service providers to meet the criteria of IEC 62443-2-4. The procedure involves identifying and classifying devices, establishing a patch management list, and devising mitigation plans for unpatchable situations. It aims to mitigate cybersecurity risks and ensure production availability in manufacturing environments.</t>
-  </si>
-  <si>
-    <t>Introduce a patch management procedure designed for service providers, enabling collaborative patching under asset owner supervision.</t>
-  </si>
-  <si>
-    <t>Establish processes for identifying and classifying IoT devices and developing a comprehensive patch management list.</t>
-  </si>
-  <si>
-    <t>Devise mitigation strategies for scenarios where patching is not feasible, ensuring continuity of production while reducing cybersecurity risks.</t>
-  </si>
-  <si>
-    <t>https://ieeexplore.ieee.org/document/10170074</t>
-  </si>
-  <si>
-    <t>Improving Cybersecurity Hygiene through Just-in-Time Patching</t>
-  </si>
-  <si>
-    <t>Frederico Araujo, Teryl Taylor</t>
-  </si>
-  <si>
-    <t>The paper introduces a patch management model aimed at facilitating the seamless integration of software patches into live commodity applications, ensuring continuous production workflows. Additionally, it proposes transparent sandboxing of suspicious processes for counter-reconnaissance and threat intelligence gathering. The model focuses on enhancing vulnerability management and workload visibility, offering an agile approach to security patch testing and deployment.</t>
-  </si>
-  <si>
-    <t>Introduce a patch management model for rapid and seamless integration of software patches into live applications without disrupting production workflows.</t>
-  </si>
-  <si>
-    <t>Implement transparent sandboxing of suspicious processes to gather threat intelligence and enhance counter-reconnaissance capabilities.</t>
-  </si>
-  <si>
-    <t>https://dl.acm.org/doi/10.1145/3368089.3417056</t>
-  </si>
-  <si>
-    <t>Application of Advanced Cybersecurity Threat Mitigation to Rogue Devices, Privilege Escalation, and Risk-Based Vulnerability and Patch Management</t>
-  </si>
-  <si>
-    <t>Jason CrabtreeAndrew SellersDaniel FricanoRajat GuptaIan MacLeod</t>
-  </si>
-  <si>
-    <t>The patent describes a system designed for the mitigation of cyberattacks utilizing an advanced cyber decision platform. This platform comprises various modules such as a time series data store, a directed computational graph module, an action outcome simulation module, and an observation and state estimation module. The system monitors the state of a network, generates a cyber-physical graph representing network resources, and simulates network events for analysis.</t>
-  </si>
-  <si>
-    <t>Implement an advanced cyber decision platform comprising various modules for monitoring network state and producing security recommendations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Develop a system capable of generating cyber-physical graphs to represent network resources and simulate network events.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://patents.google.com/patent/US10609079B2/en </t>
-  </si>
-  <si>
-    <t>Audit Plan for Patch Management of Enterprise Applications</t>
-  </si>
-  <si>
-    <t>The paper develops an audit program and plan tailored for patch management of enterprise applications, incorporating elements recommended by information security frameworks and the research community. It emphasizes the importance of patch management as a risk management tool within IT security programs, aiming to mitigate downtime, data leakage, penalties, revenue loss, and reputational damage. The audit plan is meticulously crafted to align with relevant sections of the NIST cybersecurity framework.</t>
-  </si>
-  <si>
-    <t>Highlight the significance of patch management as a risk management tool within IT security programs, emphasizing its role in preventing various detrimental outcomes such as downtime and data leakage.</t>
-  </si>
-  <si>
-    <t>Develop a comprehensive audit program and plan specifically designed for patch management in enterprise applications, incorporating recommendations from information security frameworks and academic research.</t>
-  </si>
-  <si>
-    <t>Lois Odilinye, Sergey Butakov, Shaun Aghili</t>
-  </si>
-  <si>
-    <t>Software Security Patch Management: A Systematic Literature Review of Challenges, Approaches, Tools, and Practices</t>
-  </si>
-  <si>
-    <t>The paper conducts a systematic literature review encompassing 72 studies published from 2002 to March 2020, with extended coverage until September 2020 through forward snowballing. It identifies 14 socio-technical challenges in software security patch management, 18 solution approaches, tools, and practices mapped onto the patch management process. Moreover, it highlights that only 20.8% of the reported solutions have undergone rigorous evaluation in industrial settings.</t>
-  </si>
-  <si>
-    <t>Conduct a systematic literature review to identify socio-technical challenges and solution approaches in software security patch management.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Map identified challenges, approaches, tools, and practices onto the patch management process to provide comprehensive insights.</t>
-  </si>
-  <si>
-    <t>Nesara Dissanayake, Asangi Jayatilaka, Mansooreh Zahedi, M. Ali Babar</t>
-  </si>
-  <si>
-    <t>Introduction and Approximate Solution for Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>GeeksforGeeks</t>
-  </si>
-  <si>
-    <t>The webpage discusses the Vertex Cover Problem, a known NP-complete problem, and presents an approximate algorithm with a performance guarantee. The algorithm operates in polynomial time and space complexities.</t>
-  </si>
-  <si>
-    <t>Outline the Vertex Cover Problem, a known NP-complete problem aiming to find the smallest set of vertices covering all edges in a graph.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introduce an approximate algorithm for the Vertex Cover Problem, which iteratively selects edges and adds their vertices to the cover set, guaranteeing a solution no more than twice the size of the optimal cover.</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/introduction-and-approximate-solution-for-vertex-cover-problem/</t>
-  </si>
-  <si>
-    <t>Graphs.jl Documentation - Vertex Cover Algorithms</t>
-  </si>
-  <si>
-    <t>Julia Graphs</t>
-  </si>
-  <si>
-    <t>The webpage provides comprehensive documentation on two algorithms implemented in Graphs.jl for finding vertex covers in graphs. It focuses on detailing the implementation, performance metrics, and usage examples of these algorithms.</t>
-  </si>
-  <si>
-    <t>Explore vertex cover algorithms provided by Graphs.jl, including a greedy heuristic method and a randomized approach.</t>
-  </si>
-  <si>
-    <t>Understand the implementation details and performance metrics of these algorithms, including their runtime complexity and memory usage.</t>
-  </si>
-  <si>
-    <t>Vertex Cover</t>
-  </si>
-  <si>
-    <t>Brilliant Math &amp; Science Wiki</t>
-  </si>
-  <si>
-    <t>The webpage delves into the concept of vertex cover within graph theory, elucidating its significance in solving optimization problems. It emphasizes the computational complexity associated with finding the smallest vertex cover, an NP-complete problem, and presents an approximation algorithm as a practical solution approach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Explore the concept of vertex cover in graph theory, defining it as a set of vertices touching all edges in the graph.</t>
-  </si>
-  <si>
-    <t>Address the computational complexity of finding a vertex cover, highlighting its NP-complete nature and the challenges of exact solution methods.</t>
-  </si>
-  <si>
-    <t>Present an approximation algorithm for vertex cover, offering a faster solution albeit potentially suboptimal compared to exact algorithms.</t>
-  </si>
-  <si>
-    <t>https://brilliant.org/wiki/vertex-cover/</t>
-  </si>
-  <si>
-    <t>Murugiah Souppaya, Karen Scarfone</t>
-  </si>
-  <si>
-    <t>Guide to Enterprise Patch Management Planning: Preventive Maintenance for Technology | NIST</t>
-  </si>
-  <si>
-    <t>The NIST publication emphasizes the significance of patch management as a critical maintenance practice for organizational technology. It provides strategies tailored for different risk scenarios and offers practical recommendations to enhance the patch management process, ensuring the resilience of enterprise systems.</t>
-  </si>
-  <si>
-    <t>Highlight the importance of enterprise patch management as a fundamental process for maintaining organizational technology and preventing security breaches.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Provide strategies for various risk response scenarios, including routine patching, emergency patching, emergency mitigation, and handling unpatchable assets.</t>
-  </si>
-  <si>
-    <t>Recommend assigning assets to maintenance groups based on similar characteristics to streamline the patch management process and improve efficiency.</t>
-  </si>
-  <si>
-    <t>https://nvlpubs.nist.gov/nistpubs/SpecialPublications/NIST.SP.800-40r4.pdf</t>
-  </si>
-  <si>
-    <t>Ibifubara Iganibo, Massimiliano Albanese, Marc Mosko, Eric Bier, Alejandro E. Brito</t>
-  </si>
-  <si>
-    <t>The paper discusses the enhancement of graph-based configuration security by introducing metrics that quantify aspects like exploitation likelihood and component exposure to vulnerabilities. It aims to improve system security through a detailed model called SCIBORG.</t>
-  </si>
-  <si>
-    <t>Utilize vulnerability graphs as a tool for modeling multi-step attacks and assessing a system's attack surface; leverage relationships between system components, configuration parameters, and vulnerabilities to improve security while preserving functionality.</t>
-  </si>
-  <si>
-    <t>Introduce metrics to evaluate exploitation likelihood, probability distributions over vulnerability graph edges, and exposure factors of system components to vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Implement the SCIBORG model, a multi-layer graph approach for configuration analysis and optimization, incorporating dependency, vulnerability, and configuration subgraphs.</t>
-  </si>
-  <si>
-    <t>https://www.scitepress.org/Papers/2021/105594/105594.pdf</t>
-  </si>
-  <si>
-    <t>This survey paper comprehensively analyzes graph vulnerability and robustness, encompassing various measures, applications, attack strategies, and defense mechanisms. It serves as a valuable resource for researchers and practitioners in the field, providing insights into the evaluation and enhancement of network resilience.</t>
-  </si>
-  <si>
-    <t>Scott Freitas, Diyi Yang, Srijan Kumar, Hanghang Tong, Duen Horng Chau</t>
-  </si>
-  <si>
-    <t>Summarize modern and classical network robustness measures to aid researchers in selecting appropriate measures for their applications.</t>
-  </si>
-  <si>
-    <t>Discuss the applicability of different robustness measures to various network types, emphasizing the contextual evaluation of network resilience.</t>
-  </si>
-  <si>
-    <t>Review common network attack strategies and defense mechanisms, comparing their effectiveness across different network topologies and attack vectors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,7 +1154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1210,12 +1210,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1225,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1256,7 +1321,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1280,6 +1345,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,6 +1374,30 @@
   <dxfs count="20">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1322,30 +1432,6 @@
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1360,41 +1446,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519B610E-64CA-42F8-A1EF-ADBAE58DAD3E}" name="Table1" displayName="Table1" ref="A1:C379" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519B610E-64CA-42F8-A1EF-ADBAE58DAD3E}" name="Table1" displayName="Table1" ref="A1:C379" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C379" xr:uid="{519B610E-64CA-42F8-A1EF-ADBAE58DAD3E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A2D3A296-819D-4E39-AC1B-4E523F426F9D}" name="Title" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{1FC6AA90-5FF0-446B-BC14-5850491FB139}" name="Author (s)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D57FD955-7BF5-4D4E-B471-14EC2C02A263}" name="Methodology Employed" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A2D3A296-819D-4E39-AC1B-4E523F426F9D}" name="Title" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{1FC6AA90-5FF0-446B-BC14-5850491FB139}" name="Author (s)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D57FD955-7BF5-4D4E-B471-14EC2C02A263}" name="Methodology Employed" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FCC4159F-B0EF-4586-B377-DE014E75173C}" name="Table2" displayName="Table2" ref="D1:G1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FCC4159F-B0EF-4586-B377-DE014E75173C}" name="Table2" displayName="Table2" ref="D1:G1048576" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="D1:G1048576" xr:uid="{FCC4159F-B0EF-4586-B377-DE014E75173C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0886ADBE-40D8-4DEB-86EE-C63ED3F43B47}" name="Points for Our Project" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EE0743E3-9419-415C-900B-E9482729CFE5}" name="Points for Our Project2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20B94582-3A6F-4AE5-B46B-E5C884CABC02}" name="Points for Our Project3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8EA69C66-869A-450B-9D66-1793CF9D4DF9}" name="Link" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0886ADBE-40D8-4DEB-86EE-C63ED3F43B47}" name="Points for Our Project" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EE0743E3-9419-415C-900B-E9482729CFE5}" name="Points for Our Project2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{20B94582-3A6F-4AE5-B46B-E5C884CABC02}" name="Points for Our Project3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8EA69C66-869A-450B-9D66-1793CF9D4DF9}" name="Link" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7169AB9A-8D49-45A5-910C-19FFA36C1752}" name="Table35" displayName="Table35" ref="B5:H24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7169AB9A-8D49-45A5-910C-19FFA36C1752}" name="Table35" displayName="Table35" ref="B5:H24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B5:H24" xr:uid="{3A93D50D-1B87-45C5-AC0D-2B5C42A75DD5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EB8D2427-D65F-4656-BE66-630DC1F97B5E}" name="Title and Link" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{B6F8B73A-5523-4771-B23E-24706E7A90B3}" name="TL;DR_x0009_" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{B8CDEF4A-A309-4954-B4BF-4E31FE8854C1}" name="Insights" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E8AA0B8E-5CA5-4B80-B29C-1696D6C1E886}" name="Conclusions_x0009_" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{07D9BF49-291B-4402-B601-8EDB4458047E}" name="Results" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{2F06D731-C74C-410D-9C7F-1CFA4D19CBC8}" name="Practical Implications" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1BFDDA52-0ED4-4FF7-97EB-50361C7F07FF}" name="Methods Used" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{EB8D2427-D65F-4656-BE66-630DC1F97B5E}" name="Title and Link" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B6F8B73A-5523-4771-B23E-24706E7A90B3}" name="TL;DR_x0009_" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B8CDEF4A-A309-4954-B4BF-4E31FE8854C1}" name="Insights" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E8AA0B8E-5CA5-4B80-B29C-1696D6C1E886}" name="Conclusions_x0009_" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{07D9BF49-291B-4402-B601-8EDB4458047E}" name="Results" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2F06D731-C74C-410D-9C7F-1CFA4D19CBC8}" name="Practical Implications" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1BFDDA52-0ED4-4FF7-97EB-50361C7F07FF}" name="Methods Used" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1717,25 +1803,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="26.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1758,41 +1844,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="127.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="120" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1802,269 +1888,281 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15"/>
+    <row r="8" spans="1:7" ht="102.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="115.5">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="101.25">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="159.6" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="115.5">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15"/>
+    <row r="14" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15"/>
+    <row r="16" spans="1:7" ht="159">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="115.9" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="115.5">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15"/>
+    <row r="22" spans="1:7" ht="115.5">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="F22" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="G22" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="144.75">
       <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="110.45" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
+        <v>93</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2092,19 +2190,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9B722-7E19-448D-B0E2-BBA445065EEC}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2114,29 +2211,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2146,33 +2243,33 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2182,10 +2279,10 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="17" t="s">
-        <v>81</v>
+      <c r="B7" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2194,150 +2291,150 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="144">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="129.6">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
+      <c r="B9" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>37</v>
+        <v>115</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="158.44999999999999">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>43</v>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>46</v>
+        <v>122</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
+      <c r="B11" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>55</v>
+        <v>129</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="244.9">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>62</v>
+      <c r="B12" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
-        <v>79</v>
+      <c r="B14" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2346,7 +2443,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2356,10 +2453,10 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
-      <c r="B16" s="15" t="s">
-        <v>80</v>
+      <c r="B16" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2368,63 +2465,63 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="259.14999999999998">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>77</v>
+      <c r="B17" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="201.6">
       <c r="A18" s="1">
         <v>7</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>75</v>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="230.45">
       <c r="A19" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>70</v>
+      <c r="B19" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
@@ -2432,74 +2529,74 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>82</v>
+    <row r="21" spans="1:8">
+      <c r="B21" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="259.14999999999998">
       <c r="A22" s="1">
         <v>9</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>83</v>
+      <c r="B22" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="230.45">
       <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>86</v>
+      <c r="B23" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="273.60000000000002">
       <c r="A24" s="1">
         <v>11</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2509,7 +2606,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2519,7 +2616,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2529,7 +2626,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2539,7 +2636,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2549,7 +2646,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
